--- a/src/main/resources/excel/student_import.xlsx
+++ b/src/main/resources/excel/student_import.xlsx
@@ -109,12 +109,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -138,9 +153,7 @@
         <color indexed="10"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -151,7 +164,9 @@
         <color indexed="10"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -160,7 +175,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -170,16 +185,13 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1292,7 +1304,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1367,7 +1379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1">
+    <row r="2" ht="17" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1404,94 +1416,94 @@
       <c r="P3" s="4"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
     </row>
     <row r="9" ht="17" customHeight="1">
       <c r="A9" s="5"/>
@@ -1511,43 +1523,7 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="E1:E2"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/src/main/resources/excel/student_import.xlsx
+++ b/src/main/resources/excel/student_import.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14260"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>学号</t>
   </si>
@@ -64,23 +72,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
@@ -90,9 +85,8 @@
       <name val="宋体"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="3">
@@ -109,7 +103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,94 +126,101 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -345,7 +346,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -354,7 +355,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -363,7 +364,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -437,7 +438,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -445,7 +446,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -464,7 +465,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -494,7 +495,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -520,7 +521,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -546,7 +547,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -572,7 +573,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -598,7 +599,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -624,7 +625,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -650,7 +651,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -676,7 +677,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -702,7 +703,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -715,9 +716,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -732,7 +739,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -740,7 +747,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -759,7 +766,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -785,7 +792,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -811,7 +818,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -837,7 +844,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -863,7 +870,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -889,7 +896,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -915,7 +922,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -941,7 +948,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -967,7 +974,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -993,7 +1000,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1006,9 +1013,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1022,7 +1035,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1041,7 +1054,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1071,7 +1084,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1097,7 +1110,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1123,7 +1136,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1149,7 +1162,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1175,7 +1188,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1201,7 +1214,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1227,7 +1240,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1253,7 +1266,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1279,7 +1292,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1292,242 +1305,98 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.75" style="1" customWidth="1"/>
+    <col min="1" max="16" width="8.75" style="1" customWidth="1"/>
     <col min="17" max="256" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:16" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-    </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-    </row>
-    <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/main/resources/excel/student_import.xlsx
+++ b/src/main/resources/excel/student_import.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yyq/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>学号</t>
   </si>
@@ -67,13 +72,217 @@
   </si>
   <si>
     <t>微信号码</t>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016级</t>
+    <rPh sb="4" eb="5">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3班</t>
+    <rPh sb="1" eb="2">
+      <t>ban</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张大大</t>
+    <rPh sb="0" eb="1">
+      <t>zhang da da</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <rPh sb="0" eb="1">
+      <t>zhang s</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>班长</t>
+    <rPh sb="0" eb="1">
+      <t>ban zhang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18888888888</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23023119991212000X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>nan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1999-12-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江</t>
+    <rPh sb="0" eb="1">
+      <t>h l j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉族</t>
+    <rPh sb="0" eb="1">
+      <t>han z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江大庆</t>
+    <rPh sb="0" eb="1">
+      <t>hei l j</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da qing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江省大庆市开发区建设小区D-02七单元101</t>
+    <rPh sb="0" eb="1">
+      <t>hei l j</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>sheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>da qing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kai fa qu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jian she lu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xiao qu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>78976501</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheng001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1班</t>
+    <rPh sb="1" eb="2">
+      <t>ban</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李成</t>
+    <rPh sb="0" eb="1">
+      <t>li cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19999999999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400401199801016789</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>nü</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1998-01-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江</t>
+    <rPh sb="0" eb="1">
+      <t>hei l j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>满族</t>
+    <rPh sb="0" eb="1">
+      <t>man zu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江大庆</t>
+    <rPh sb="0" eb="1">
+      <t>hei l j da q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江省大庆市庆龙小区A-08五单元701</t>
+    <rPh sb="0" eb="1">
+      <t>hei l j s</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>da qing shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qing long xiao qu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wu dan yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>732731745</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13923254162</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -86,6 +295,11 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -132,7 +346,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -142,9 +356,15 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -216,6 +436,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1324,19 +1549,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV1"/>
+  <dimension ref="A1:IV3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="8.75" style="1" customWidth="1"/>
+    <col min="1" max="6" width="8.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="3" customWidth="1"/>
+    <col min="11" max="13" width="8.75" style="3" customWidth="1"/>
+    <col min="14" max="14" width="33.75" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15.25" style="3" customWidth="1"/>
     <col min="17" max="256" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20" customHeight="1">
+    <row r="1" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1384,6 +1617,106 @@
       </c>
       <c r="P1" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1393,10 +1726,5 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/src/main/resources/excel/student_import.xlsx
+++ b/src/main/resources/excel/student_import.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17060"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -59,23 +59,10 @@
     <t>户口所在地</t>
   </si>
   <si>
-    <t>民族</t>
-  </si>
-  <si>
-    <t>籍贯</t>
-  </si>
-  <si>
-    <t>家庭住址</t>
-  </si>
-  <si>
     <t>qq号码</t>
   </si>
   <si>
     <t>微信号码</t>
-  </si>
-  <si>
-    <t>1001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2016级</t>
@@ -85,13 +72,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3班</t>
-    <rPh sb="1" eb="2">
-      <t>ban</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>张大大</t>
     <rPh sb="0" eb="1">
       <t>zhang da da</t>
@@ -189,17 +169,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1103</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1班</t>
-    <rPh sb="1" eb="2">
-      <t>ban</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>李成</t>
     <rPh sb="0" eb="1">
       <t>li cheng</t>
@@ -275,6 +244,40 @@
   </si>
   <si>
     <t>13923254162</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>籍贯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭住址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03班</t>
+    <rPh sb="2" eb="3">
+      <t>ban</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01班</t>
+    <rPh sb="2" eb="3">
+      <t>ban</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160301</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160102</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -292,6 +295,8 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1552,7 +1557,7 @@
   <dimension ref="A1:IV3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1604,119 +1609,119 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/student_import.xlsx
+++ b/src/main/resources/excel/student_import.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yyq/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>学号</t>
   </si>
@@ -63,188 +58,6 @@
   </si>
   <si>
     <t>微信号码</t>
-  </si>
-  <si>
-    <t>2016级</t>
-    <rPh sb="4" eb="5">
-      <t>ji</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张大大</t>
-    <rPh sb="0" eb="1">
-      <t>zhang da da</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <rPh sb="0" eb="1">
-      <t>zhang s</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>班长</t>
-    <rPh sb="0" eb="1">
-      <t>ban zhang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18888888888</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>23023119991212000X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <rPh sb="0" eb="1">
-      <t>nan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1999-12-12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑龙江</t>
-    <rPh sb="0" eb="1">
-      <t>h l j</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉族</t>
-    <rPh sb="0" eb="1">
-      <t>han z</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑龙江大庆</t>
-    <rPh sb="0" eb="1">
-      <t>hei l j</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>da qing</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑龙江省大庆市开发区建设小区D-02七单元101</t>
-    <rPh sb="0" eb="1">
-      <t>hei l j</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>sheng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>da qing</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>kai fa qu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>jian she lu</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>xiao qu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>78976501</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cheng001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李成</t>
-    <rPh sb="0" eb="1">
-      <t>li cheng</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <rPh sb="0" eb="1">
-      <t>wu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>19999999999</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>400401199801016789</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
-    <rPh sb="0" eb="1">
-      <t>nü</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1998-01-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑龙江</t>
-    <rPh sb="0" eb="1">
-      <t>hei l j</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>满族</t>
-    <rPh sb="0" eb="1">
-      <t>man zu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑龙江大庆</t>
-    <rPh sb="0" eb="1">
-      <t>hei l j da q</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑龙江省大庆市庆龙小区A-08五单元701</t>
-    <rPh sb="0" eb="1">
-      <t>hei l j s</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>da qing shi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>qing long xiao qu</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>wu dan yuan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>732731745</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13923254162</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>籍贯</t>
@@ -256,28 +69,6 @@
   </si>
   <si>
     <t>民族</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>03班</t>
-    <rPh sb="2" eb="3">
-      <t>ban</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01班</t>
-    <rPh sb="2" eb="3">
-      <t>ban</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20160301</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20160102</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -285,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -300,11 +91,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -351,7 +137,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -364,12 +150,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1554,13 +1337,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV3"/>
+  <dimension ref="A1:IV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="6" width="8.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="12" style="3" customWidth="1"/>
@@ -1574,7 +1357,7 @@
     <col min="17" max="256" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1609,119 +1392,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1731,5 +1414,10 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/main/resources/excel/student_import.xlsx
+++ b/src/main/resources/excel/student_import.xlsx
@@ -33,9 +33,6 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>曾用名</t>
-  </si>
-  <si>
     <t>班内职务</t>
   </si>
   <si>
@@ -69,6 +66,10 @@
   </si>
   <si>
     <t>民族</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家长姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1340,7 +1341,7 @@
   <dimension ref="A1:IV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1371,40 +1372,40 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
